--- a/challenge_4/Problem/Persona_Homer.xlsx
+++ b/challenge_4/Problem/Persona_Homer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\Design-Thinking-Workshop\SmartSystemsBS14\challenge_4\Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511C175-4554-47FE-9E0D-F1B1A878817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE047A3F-1271-4EED-B367-DD08955B299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A5E46768-A93C-4607-A35E-44C1E7A719DC}"/>
   </bookViews>
@@ -176,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,19 +199,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +242,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12C7367-46CD-4B4A-A8C9-530589A84DDD}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,221 +657,221 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
